--- a/Tiempos En Español.xlsx
+++ b/Tiempos En Español.xlsx
@@ -19,133 +19,133 @@
     <t>0</t>
   </si>
   <si>
-    <t>yo formo</t>
+    <t>yo percibo</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tú formas</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. forma</t>
-  </si>
-  <si>
-    <t>nosotros formamos</t>
-  </si>
-  <si>
-    <t>vosotros formáis</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. forman</t>
-  </si>
-  <si>
-    <t>yo formaré</t>
-  </si>
-  <si>
-    <t>tú formarás</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. formará</t>
-  </si>
-  <si>
-    <t>nosotros formaremos</t>
-  </si>
-  <si>
-    <t>vosotros formaréis</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. formarán</t>
-  </si>
-  <si>
-    <t>yo formaba</t>
-  </si>
-  <si>
-    <t>tú formabas</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. formaba</t>
-  </si>
-  <si>
-    <t>nosotros formábamos</t>
-  </si>
-  <si>
-    <t>vosotros formabais</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. formaban</t>
-  </si>
-  <si>
-    <t>yo he formado</t>
-  </si>
-  <si>
-    <t>tú has formado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. ha formado</t>
-  </si>
-  <si>
-    <t>nosotros hemos formado</t>
-  </si>
-  <si>
-    <t>vosotros habéis formado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. han formado</t>
-  </si>
-  <si>
-    <t>yo había formado</t>
-  </si>
-  <si>
-    <t>tú habías formado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. había formado</t>
-  </si>
-  <si>
-    <t>nosotros habíamos formado</t>
-  </si>
-  <si>
-    <t>vosotros habíais formado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habían formado</t>
-  </si>
-  <si>
-    <t>yo hube formado</t>
-  </si>
-  <si>
-    <t>tú hubiste formado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. hubo formado</t>
-  </si>
-  <si>
-    <t>nosotros hubimos formado</t>
-  </si>
-  <si>
-    <t>vosotros hubisteis formado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. hubieron formado</t>
-  </si>
-  <si>
-    <t>yo habré formado</t>
-  </si>
-  <si>
-    <t>tú habrás formado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. habrá formado</t>
-  </si>
-  <si>
-    <t>nosotros habremos formado</t>
-  </si>
-  <si>
-    <t>vosotros habréis formado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habrán formado</t>
+    <t>tú percibes</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. percibe</t>
+  </si>
+  <si>
+    <t>nosotros percibimos</t>
+  </si>
+  <si>
+    <t>vosotros percibís</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. perciben</t>
+  </si>
+  <si>
+    <t>yo percibiré</t>
+  </si>
+  <si>
+    <t>tú percibirás</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. percibirá</t>
+  </si>
+  <si>
+    <t>nosotros percibiremos</t>
+  </si>
+  <si>
+    <t>vosotros percibiréis</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. percibirán</t>
+  </si>
+  <si>
+    <t>yo percibía</t>
+  </si>
+  <si>
+    <t>tú percibías</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. percibía</t>
+  </si>
+  <si>
+    <t>nosotros percibíamos</t>
+  </si>
+  <si>
+    <t>vosotros percibíais</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. percibían</t>
+  </si>
+  <si>
+    <t>yo he percibido</t>
+  </si>
+  <si>
+    <t>tú has percibido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha percibido</t>
+  </si>
+  <si>
+    <t>nosotros hemos percibido</t>
+  </si>
+  <si>
+    <t>vosotros habéis percibido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han percibido</t>
+  </si>
+  <si>
+    <t>yo había percibido</t>
+  </si>
+  <si>
+    <t>tú habías percibido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había percibido</t>
+  </si>
+  <si>
+    <t>nosotros habíamos percibido</t>
+  </si>
+  <si>
+    <t>vosotros habíais percibido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían percibido</t>
+  </si>
+  <si>
+    <t>yo hube percibido</t>
+  </si>
+  <si>
+    <t>tú hubiste percibido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo percibido</t>
+  </si>
+  <si>
+    <t>nosotros hubimos percibido</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis percibido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron percibido</t>
+  </si>
+  <si>
+    <t>yo habré percibido</t>
+  </si>
+  <si>
+    <t>tú habrás percibido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá percibido</t>
+  </si>
+  <si>
+    <t>nosotros habremos percibido</t>
+  </si>
+  <si>
+    <t>vosotros habréis percibido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán percibido</t>
   </si>
 </sst>
 </file>

--- a/Tiempos En Español.xlsx
+++ b/Tiempos En Español.xlsx
@@ -14,138 +14,1650 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="548">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>yo percibo</t>
+    <t>yo admito</t>
+  </si>
+  <si>
+    <t>yo preparo</t>
+  </si>
+  <si>
+    <t>yo hago</t>
+  </si>
+  <si>
+    <t>yo llamo</t>
+  </si>
+  <si>
+    <t>yo fallo</t>
+  </si>
+  <si>
+    <t>yo devasto</t>
+  </si>
+  <si>
+    <t>yo presto</t>
+  </si>
+  <si>
+    <t>yo tiemplo/templo</t>
+  </si>
+  <si>
+    <t>yo giro</t>
+  </si>
+  <si>
+    <t>yo paro</t>
+  </si>
+  <si>
+    <t>yo enciendo</t>
+  </si>
+  <si>
+    <t>yo juro</t>
+  </si>
+  <si>
+    <t>yo inflijo</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tú percibes</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. percibe</t>
-  </si>
-  <si>
-    <t>nosotros percibimos</t>
-  </si>
-  <si>
-    <t>vosotros percibís</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. perciben</t>
-  </si>
-  <si>
-    <t>yo percibiré</t>
-  </si>
-  <si>
-    <t>tú percibirás</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. percibirá</t>
-  </si>
-  <si>
-    <t>nosotros percibiremos</t>
-  </si>
-  <si>
-    <t>vosotros percibiréis</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. percibirán</t>
-  </si>
-  <si>
-    <t>yo percibía</t>
-  </si>
-  <si>
-    <t>tú percibías</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. percibía</t>
-  </si>
-  <si>
-    <t>nosotros percibíamos</t>
-  </si>
-  <si>
-    <t>vosotros percibíais</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. percibían</t>
-  </si>
-  <si>
-    <t>yo he percibido</t>
-  </si>
-  <si>
-    <t>tú has percibido</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. ha percibido</t>
-  </si>
-  <si>
-    <t>nosotros hemos percibido</t>
-  </si>
-  <si>
-    <t>vosotros habéis percibido</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. han percibido</t>
-  </si>
-  <si>
-    <t>yo había percibido</t>
-  </si>
-  <si>
-    <t>tú habías percibido</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. había percibido</t>
-  </si>
-  <si>
-    <t>nosotros habíamos percibido</t>
-  </si>
-  <si>
-    <t>vosotros habíais percibido</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habían percibido</t>
-  </si>
-  <si>
-    <t>yo hube percibido</t>
-  </si>
-  <si>
-    <t>tú hubiste percibido</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. hubo percibido</t>
-  </si>
-  <si>
-    <t>nosotros hubimos percibido</t>
-  </si>
-  <si>
-    <t>vosotros hubisteis percibido</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. hubieron percibido</t>
-  </si>
-  <si>
-    <t>yo habré percibido</t>
-  </si>
-  <si>
-    <t>tú habrás percibido</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. habrá percibido</t>
-  </si>
-  <si>
-    <t>nosotros habremos percibido</t>
-  </si>
-  <si>
-    <t>vosotros habréis percibido</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habrán percibido</t>
+    <t>tú admites</t>
+  </si>
+  <si>
+    <t>tú preparas</t>
+  </si>
+  <si>
+    <t>tú haces</t>
+  </si>
+  <si>
+    <t>tú llamas</t>
+  </si>
+  <si>
+    <t>tú fallas</t>
+  </si>
+  <si>
+    <t>tú devastas</t>
+  </si>
+  <si>
+    <t>tú prestas</t>
+  </si>
+  <si>
+    <t>tú tiemplas/templas</t>
+  </si>
+  <si>
+    <t>tú giras</t>
+  </si>
+  <si>
+    <t>tú paras</t>
+  </si>
+  <si>
+    <t>tú enciendes</t>
+  </si>
+  <si>
+    <t>tú juras</t>
+  </si>
+  <si>
+    <t>tú infliges</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. admite</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. prepara</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hace</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. llama</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. falla</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. devasta</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. presta</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. tiempla/templa</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. gira</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. para</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. enciende</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. jura</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. inflige</t>
+  </si>
+  <si>
+    <t>nosotros admitimos</t>
+  </si>
+  <si>
+    <t>nosotros preparamos</t>
+  </si>
+  <si>
+    <t>nosotros hacemos</t>
+  </si>
+  <si>
+    <t>nosotros llamamos</t>
+  </si>
+  <si>
+    <t>nosotros fallamos</t>
+  </si>
+  <si>
+    <t>nosotros devastamos</t>
+  </si>
+  <si>
+    <t>nosotros prestamos</t>
+  </si>
+  <si>
+    <t>nosotros templamos</t>
+  </si>
+  <si>
+    <t>nosotros giramos</t>
+  </si>
+  <si>
+    <t>nosotros paramos</t>
+  </si>
+  <si>
+    <t>nosotros encendemos</t>
+  </si>
+  <si>
+    <t>nosotros juramos</t>
+  </si>
+  <si>
+    <t>nosotros infligimos</t>
+  </si>
+  <si>
+    <t>vosotros admitís</t>
+  </si>
+  <si>
+    <t>vosotros preparáis</t>
+  </si>
+  <si>
+    <t>vosotros hacéis</t>
+  </si>
+  <si>
+    <t>vosotros llamáis</t>
+  </si>
+  <si>
+    <t>vosotros falláis</t>
+  </si>
+  <si>
+    <t>vosotros devastáis</t>
+  </si>
+  <si>
+    <t>vosotros prestáis</t>
+  </si>
+  <si>
+    <t>vosotros templáis</t>
+  </si>
+  <si>
+    <t>vosotros giráis</t>
+  </si>
+  <si>
+    <t>vosotros paráis</t>
+  </si>
+  <si>
+    <t>vosotros encendéis</t>
+  </si>
+  <si>
+    <t>vosotros juráis</t>
+  </si>
+  <si>
+    <t>vosotros infligís</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. admiten</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. preparan</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hacen</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. llaman</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. fallan</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. devastan</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. prestan</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. tiemplan/templan</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. giran</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. paran</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. encienden</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. juran</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. infligen</t>
+  </si>
+  <si>
+    <t>yo admitiré</t>
+  </si>
+  <si>
+    <t>yo prepararé</t>
+  </si>
+  <si>
+    <t>yo haré</t>
+  </si>
+  <si>
+    <t>yo llamaré</t>
+  </si>
+  <si>
+    <t>yo fallaré</t>
+  </si>
+  <si>
+    <t>yo devastaré</t>
+  </si>
+  <si>
+    <t>yo prestaré</t>
+  </si>
+  <si>
+    <t>yo templaré</t>
+  </si>
+  <si>
+    <t>yo giraré</t>
+  </si>
+  <si>
+    <t>yo pararé</t>
+  </si>
+  <si>
+    <t>yo encenderé</t>
+  </si>
+  <si>
+    <t>yo juraré</t>
+  </si>
+  <si>
+    <t>yo infligiré</t>
+  </si>
+  <si>
+    <t>tú admitirás</t>
+  </si>
+  <si>
+    <t>tú prepararás</t>
+  </si>
+  <si>
+    <t>tú harás</t>
+  </si>
+  <si>
+    <t>tú llamarás</t>
+  </si>
+  <si>
+    <t>tú fallarás</t>
+  </si>
+  <si>
+    <t>tú devastarás</t>
+  </si>
+  <si>
+    <t>tú prestarás</t>
+  </si>
+  <si>
+    <t>tú templarás</t>
+  </si>
+  <si>
+    <t>tú girarás</t>
+  </si>
+  <si>
+    <t>tú pararás</t>
+  </si>
+  <si>
+    <t>tú encenderás</t>
+  </si>
+  <si>
+    <t>tú jurarás</t>
+  </si>
+  <si>
+    <t>tú infligirás</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. admitirá</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. preparará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. llamará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. fallará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. devastará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. prestará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. templará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. girará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. parará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. encenderá</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. jurará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. infligirá</t>
+  </si>
+  <si>
+    <t>nosotros admitiremos</t>
+  </si>
+  <si>
+    <t>nosotros prepararemos</t>
+  </si>
+  <si>
+    <t>nosotros haremos</t>
+  </si>
+  <si>
+    <t>nosotros llamaremos</t>
+  </si>
+  <si>
+    <t>nosotros fallaremos</t>
+  </si>
+  <si>
+    <t>nosotros devastaremos</t>
+  </si>
+  <si>
+    <t>nosotros prestaremos</t>
+  </si>
+  <si>
+    <t>nosotros templaremos</t>
+  </si>
+  <si>
+    <t>nosotros giraremos</t>
+  </si>
+  <si>
+    <t>nosotros pararemos</t>
+  </si>
+  <si>
+    <t>nosotros encenderemos</t>
+  </si>
+  <si>
+    <t>nosotros juraremos</t>
+  </si>
+  <si>
+    <t>nosotros infligiremos</t>
+  </si>
+  <si>
+    <t>vosotros admitiréis</t>
+  </si>
+  <si>
+    <t>vosotros prepararéis</t>
+  </si>
+  <si>
+    <t>vosotros haréis</t>
+  </si>
+  <si>
+    <t>vosotros llamaréis</t>
+  </si>
+  <si>
+    <t>vosotros fallaréis</t>
+  </si>
+  <si>
+    <t>vosotros devastaréis</t>
+  </si>
+  <si>
+    <t>vosotros prestaréis</t>
+  </si>
+  <si>
+    <t>vosotros templaréis</t>
+  </si>
+  <si>
+    <t>vosotros giraréis</t>
+  </si>
+  <si>
+    <t>vosotros pararéis</t>
+  </si>
+  <si>
+    <t>vosotros encenderéis</t>
+  </si>
+  <si>
+    <t>vosotros juraréis</t>
+  </si>
+  <si>
+    <t>vosotros infligiréis</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. admitirán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. prepararán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. harán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. llamarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. fallarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. devastarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. prestarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. templarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. girarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. pararán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. encenderán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. jurarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. infligirán</t>
+  </si>
+  <si>
+    <t>yo admitía</t>
+  </si>
+  <si>
+    <t>yo preparaba</t>
+  </si>
+  <si>
+    <t>yo hacía</t>
+  </si>
+  <si>
+    <t>yo llamaba</t>
+  </si>
+  <si>
+    <t>yo fallaba</t>
+  </si>
+  <si>
+    <t>yo devastaba</t>
+  </si>
+  <si>
+    <t>yo prestaba</t>
+  </si>
+  <si>
+    <t>yo templaba</t>
+  </si>
+  <si>
+    <t>yo giraba</t>
+  </si>
+  <si>
+    <t>yo paraba</t>
+  </si>
+  <si>
+    <t>yo encendía</t>
+  </si>
+  <si>
+    <t>yo juraba</t>
+  </si>
+  <si>
+    <t>yo infligía</t>
+  </si>
+  <si>
+    <t>tú admitías</t>
+  </si>
+  <si>
+    <t>tú preparabas</t>
+  </si>
+  <si>
+    <t>tú hacías</t>
+  </si>
+  <si>
+    <t>tú llamabas</t>
+  </si>
+  <si>
+    <t>tú fallabas</t>
+  </si>
+  <si>
+    <t>tú devastabas</t>
+  </si>
+  <si>
+    <t>tú prestabas</t>
+  </si>
+  <si>
+    <t>tú templabas</t>
+  </si>
+  <si>
+    <t>tú girabas</t>
+  </si>
+  <si>
+    <t>tú parabas</t>
+  </si>
+  <si>
+    <t>tú encendías</t>
+  </si>
+  <si>
+    <t>tú jurabas</t>
+  </si>
+  <si>
+    <t>tú infligías</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. admitía</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. preparaba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hacía</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. llamaba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. fallaba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. devastaba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. prestaba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. templaba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. giraba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. paraba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. encendía</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. juraba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. infligía</t>
+  </si>
+  <si>
+    <t>nosotros admitíamos</t>
+  </si>
+  <si>
+    <t>nosotros preparábamos</t>
+  </si>
+  <si>
+    <t>nosotros hacíamos</t>
+  </si>
+  <si>
+    <t>nosotros llamábamos</t>
+  </si>
+  <si>
+    <t>nosotros fallábamos</t>
+  </si>
+  <si>
+    <t>nosotros devastábamos</t>
+  </si>
+  <si>
+    <t>nosotros prestábamos</t>
+  </si>
+  <si>
+    <t>nosotros templábamos</t>
+  </si>
+  <si>
+    <t>nosotros girábamos</t>
+  </si>
+  <si>
+    <t>nosotros parábamos</t>
+  </si>
+  <si>
+    <t>nosotros encendíamos</t>
+  </si>
+  <si>
+    <t>nosotros jurábamos</t>
+  </si>
+  <si>
+    <t>nosotros infligíamos</t>
+  </si>
+  <si>
+    <t>vosotros admitíais</t>
+  </si>
+  <si>
+    <t>vosotros preparabais</t>
+  </si>
+  <si>
+    <t>vosotros hacíais</t>
+  </si>
+  <si>
+    <t>vosotros llamabais</t>
+  </si>
+  <si>
+    <t>vosotros fallabais</t>
+  </si>
+  <si>
+    <t>vosotros devastabais</t>
+  </si>
+  <si>
+    <t>vosotros prestabais</t>
+  </si>
+  <si>
+    <t>vosotros templabais</t>
+  </si>
+  <si>
+    <t>vosotros girabais</t>
+  </si>
+  <si>
+    <t>vosotros parabais</t>
+  </si>
+  <si>
+    <t>vosotros encendíais</t>
+  </si>
+  <si>
+    <t>vosotros jurabais</t>
+  </si>
+  <si>
+    <t>vosotros infligíais</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. admitían</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. preparaban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hacían</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. llamaban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. fallaban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. devastaban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. prestaban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. templaban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. giraban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. paraban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. encendían</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. juraban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. infligían</t>
+  </si>
+  <si>
+    <t>yo he admitido</t>
+  </si>
+  <si>
+    <t>yo he preparado</t>
+  </si>
+  <si>
+    <t>yo he hecho</t>
+  </si>
+  <si>
+    <t>yo he llamado</t>
+  </si>
+  <si>
+    <t>yo he fallado</t>
+  </si>
+  <si>
+    <t>yo he devastado</t>
+  </si>
+  <si>
+    <t>yo he prestado</t>
+  </si>
+  <si>
+    <t>yo he templado</t>
+  </si>
+  <si>
+    <t>yo he girado</t>
+  </si>
+  <si>
+    <t>yo he parado</t>
+  </si>
+  <si>
+    <t>yo he encendido</t>
+  </si>
+  <si>
+    <t>yo he jurado</t>
+  </si>
+  <si>
+    <t>yo he infligido</t>
+  </si>
+  <si>
+    <t>tú has admitido</t>
+  </si>
+  <si>
+    <t>tú has preparado</t>
+  </si>
+  <si>
+    <t>tú has hecho</t>
+  </si>
+  <si>
+    <t>tú has llamado</t>
+  </si>
+  <si>
+    <t>tú has fallado</t>
+  </si>
+  <si>
+    <t>tú has devastado</t>
+  </si>
+  <si>
+    <t>tú has prestado</t>
+  </si>
+  <si>
+    <t>tú has templado</t>
+  </si>
+  <si>
+    <t>tú has girado</t>
+  </si>
+  <si>
+    <t>tú has parado</t>
+  </si>
+  <si>
+    <t>tú has encendido</t>
+  </si>
+  <si>
+    <t>tú has jurado</t>
+  </si>
+  <si>
+    <t>tú has infligido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha admitido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha preparado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha hecho</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha llamado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha fallado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha devastado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha prestado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha templado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha girado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha parado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha encendido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha jurado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha infligido</t>
+  </si>
+  <si>
+    <t>nosotros hemos admitido</t>
+  </si>
+  <si>
+    <t>nosotros hemos preparado</t>
+  </si>
+  <si>
+    <t>nosotros hemos hecho</t>
+  </si>
+  <si>
+    <t>nosotros hemos llamado</t>
+  </si>
+  <si>
+    <t>nosotros hemos fallado</t>
+  </si>
+  <si>
+    <t>nosotros hemos devastado</t>
+  </si>
+  <si>
+    <t>nosotros hemos prestado</t>
+  </si>
+  <si>
+    <t>nosotros hemos templado</t>
+  </si>
+  <si>
+    <t>nosotros hemos girado</t>
+  </si>
+  <si>
+    <t>nosotros hemos parado</t>
+  </si>
+  <si>
+    <t>nosotros hemos encendido</t>
+  </si>
+  <si>
+    <t>nosotros hemos jurado</t>
+  </si>
+  <si>
+    <t>nosotros hemos infligido</t>
+  </si>
+  <si>
+    <t>vosotros habéis admitido</t>
+  </si>
+  <si>
+    <t>vosotros habéis preparado</t>
+  </si>
+  <si>
+    <t>vosotros habéis hecho</t>
+  </si>
+  <si>
+    <t>vosotros habéis llamado</t>
+  </si>
+  <si>
+    <t>vosotros habéis fallado</t>
+  </si>
+  <si>
+    <t>vosotros habéis devastado</t>
+  </si>
+  <si>
+    <t>vosotros habéis prestado</t>
+  </si>
+  <si>
+    <t>vosotros habéis templado</t>
+  </si>
+  <si>
+    <t>vosotros habéis girado</t>
+  </si>
+  <si>
+    <t>vosotros habéis parado</t>
+  </si>
+  <si>
+    <t>vosotros habéis encendido</t>
+  </si>
+  <si>
+    <t>vosotros habéis jurado</t>
+  </si>
+  <si>
+    <t>vosotros habéis infligido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han admitido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han preparado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han hecho</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han llamado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han fallado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han devastado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han prestado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han templado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han girado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han parado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han encendido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han jurado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han infligido</t>
+  </si>
+  <si>
+    <t>yo había admitido</t>
+  </si>
+  <si>
+    <t>yo había preparado</t>
+  </si>
+  <si>
+    <t>yo había hecho</t>
+  </si>
+  <si>
+    <t>yo había llamado</t>
+  </si>
+  <si>
+    <t>yo había fallado</t>
+  </si>
+  <si>
+    <t>yo había devastado</t>
+  </si>
+  <si>
+    <t>yo había prestado</t>
+  </si>
+  <si>
+    <t>yo había templado</t>
+  </si>
+  <si>
+    <t>yo había girado</t>
+  </si>
+  <si>
+    <t>yo había parado</t>
+  </si>
+  <si>
+    <t>yo había encendido</t>
+  </si>
+  <si>
+    <t>yo había jurado</t>
+  </si>
+  <si>
+    <t>yo había infligido</t>
+  </si>
+  <si>
+    <t>tú habías admitido</t>
+  </si>
+  <si>
+    <t>tú habías preparado</t>
+  </si>
+  <si>
+    <t>tú habías hecho</t>
+  </si>
+  <si>
+    <t>tú habías llamado</t>
+  </si>
+  <si>
+    <t>tú habías fallado</t>
+  </si>
+  <si>
+    <t>tú habías devastado</t>
+  </si>
+  <si>
+    <t>tú habías prestado</t>
+  </si>
+  <si>
+    <t>tú habías templado</t>
+  </si>
+  <si>
+    <t>tú habías girado</t>
+  </si>
+  <si>
+    <t>tú habías parado</t>
+  </si>
+  <si>
+    <t>tú habías encendido</t>
+  </si>
+  <si>
+    <t>tú habías jurado</t>
+  </si>
+  <si>
+    <t>tú habías infligido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había admitido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había preparado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había hecho</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había llamado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había fallado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había devastado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había prestado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había templado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había girado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había parado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había encendido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había jurado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había infligido</t>
+  </si>
+  <si>
+    <t>nosotros habíamos admitido</t>
+  </si>
+  <si>
+    <t>nosotros habíamos preparado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos hecho</t>
+  </si>
+  <si>
+    <t>nosotros habíamos llamado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos fallado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos devastado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos prestado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos templado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos girado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos parado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos encendido</t>
+  </si>
+  <si>
+    <t>nosotros habíamos jurado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos infligido</t>
+  </si>
+  <si>
+    <t>vosotros habíais admitido</t>
+  </si>
+  <si>
+    <t>vosotros habíais preparado</t>
+  </si>
+  <si>
+    <t>vosotros habíais hecho</t>
+  </si>
+  <si>
+    <t>vosotros habíais llamado</t>
+  </si>
+  <si>
+    <t>vosotros habíais fallado</t>
+  </si>
+  <si>
+    <t>vosotros habíais devastado</t>
+  </si>
+  <si>
+    <t>vosotros habíais prestado</t>
+  </si>
+  <si>
+    <t>vosotros habíais templado</t>
+  </si>
+  <si>
+    <t>vosotros habíais girado</t>
+  </si>
+  <si>
+    <t>vosotros habíais parado</t>
+  </si>
+  <si>
+    <t>vosotros habíais encendido</t>
+  </si>
+  <si>
+    <t>vosotros habíais jurado</t>
+  </si>
+  <si>
+    <t>vosotros habíais infligido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían admitido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían preparado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían hecho</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían llamado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían fallado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían devastado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían prestado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían templado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían girado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían parado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían encendido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían jurado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían infligido</t>
+  </si>
+  <si>
+    <t>yo hube admitido</t>
+  </si>
+  <si>
+    <t>yo hube preparado</t>
+  </si>
+  <si>
+    <t>yo hube hecho</t>
+  </si>
+  <si>
+    <t>yo hube llamado</t>
+  </si>
+  <si>
+    <t>yo hube fallado</t>
+  </si>
+  <si>
+    <t>yo hube devastado</t>
+  </si>
+  <si>
+    <t>yo hube prestado</t>
+  </si>
+  <si>
+    <t>yo hube templado</t>
+  </si>
+  <si>
+    <t>yo hube girado</t>
+  </si>
+  <si>
+    <t>yo hube parado</t>
+  </si>
+  <si>
+    <t>yo hube encendido</t>
+  </si>
+  <si>
+    <t>yo hube jurado</t>
+  </si>
+  <si>
+    <t>yo hube infligido</t>
+  </si>
+  <si>
+    <t>tú hubiste admitido</t>
+  </si>
+  <si>
+    <t>tú hubiste preparado</t>
+  </si>
+  <si>
+    <t>tú hubiste hecho</t>
+  </si>
+  <si>
+    <t>tú hubiste llamado</t>
+  </si>
+  <si>
+    <t>tú hubiste fallado</t>
+  </si>
+  <si>
+    <t>tú hubiste devastado</t>
+  </si>
+  <si>
+    <t>tú hubiste prestado</t>
+  </si>
+  <si>
+    <t>tú hubiste templado</t>
+  </si>
+  <si>
+    <t>tú hubiste girado</t>
+  </si>
+  <si>
+    <t>tú hubiste parado</t>
+  </si>
+  <si>
+    <t>tú hubiste encendido</t>
+  </si>
+  <si>
+    <t>tú hubiste jurado</t>
+  </si>
+  <si>
+    <t>tú hubiste infligido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo admitido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo preparado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo hecho</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo llamado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo fallado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo devastado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo prestado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo templado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo girado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo parado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo encendido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo jurado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo infligido</t>
+  </si>
+  <si>
+    <t>nosotros hubimos admitido</t>
+  </si>
+  <si>
+    <t>nosotros hubimos preparado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos hecho</t>
+  </si>
+  <si>
+    <t>nosotros hubimos llamado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos fallado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos devastado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos prestado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos templado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos girado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos parado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos encendido</t>
+  </si>
+  <si>
+    <t>nosotros hubimos jurado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos infligido</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis admitido</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis preparado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis hecho</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis llamado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis fallado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis devastado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis prestado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis templado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis girado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis parado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis encendido</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis jurado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis infligido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron admitido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron preparado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron hecho</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron llamado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron fallado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron devastado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron prestado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron templado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron girado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron parado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron encendido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron jurado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron infligido</t>
+  </si>
+  <si>
+    <t>yo habré admitido</t>
+  </si>
+  <si>
+    <t>yo habré preparado</t>
+  </si>
+  <si>
+    <t>yo habré hecho</t>
+  </si>
+  <si>
+    <t>yo habré llamado</t>
+  </si>
+  <si>
+    <t>yo habré fallado</t>
+  </si>
+  <si>
+    <t>yo habré devastado</t>
+  </si>
+  <si>
+    <t>yo habré prestado</t>
+  </si>
+  <si>
+    <t>yo habré templado</t>
+  </si>
+  <si>
+    <t>yo habré girado</t>
+  </si>
+  <si>
+    <t>yo habré parado</t>
+  </si>
+  <si>
+    <t>yo habré encendido</t>
+  </si>
+  <si>
+    <t>yo habré jurado</t>
+  </si>
+  <si>
+    <t>yo habré infligido</t>
+  </si>
+  <si>
+    <t>tú habrás admitido</t>
+  </si>
+  <si>
+    <t>tú habrás preparado</t>
+  </si>
+  <si>
+    <t>tú habrás hecho</t>
+  </si>
+  <si>
+    <t>tú habrás llamado</t>
+  </si>
+  <si>
+    <t>tú habrás fallado</t>
+  </si>
+  <si>
+    <t>tú habrás devastado</t>
+  </si>
+  <si>
+    <t>tú habrás prestado</t>
+  </si>
+  <si>
+    <t>tú habrás templado</t>
+  </si>
+  <si>
+    <t>tú habrás girado</t>
+  </si>
+  <si>
+    <t>tú habrás parado</t>
+  </si>
+  <si>
+    <t>tú habrás encendido</t>
+  </si>
+  <si>
+    <t>tú habrás jurado</t>
+  </si>
+  <si>
+    <t>tú habrás infligido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá admitido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá preparado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá hecho</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá llamado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá fallado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá devastado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá prestado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá templado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá girado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá parado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá encendido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá jurado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá infligido</t>
+  </si>
+  <si>
+    <t>nosotros habremos admitido</t>
+  </si>
+  <si>
+    <t>nosotros habremos preparado</t>
+  </si>
+  <si>
+    <t>nosotros habremos hecho</t>
+  </si>
+  <si>
+    <t>nosotros habremos llamado</t>
+  </si>
+  <si>
+    <t>nosotros habremos fallado</t>
+  </si>
+  <si>
+    <t>nosotros habremos devastado</t>
+  </si>
+  <si>
+    <t>nosotros habremos prestado</t>
+  </si>
+  <si>
+    <t>nosotros habremos templado</t>
+  </si>
+  <si>
+    <t>nosotros habremos girado</t>
+  </si>
+  <si>
+    <t>nosotros habremos parado</t>
+  </si>
+  <si>
+    <t>nosotros habremos encendido</t>
+  </si>
+  <si>
+    <t>nosotros habremos jurado</t>
+  </si>
+  <si>
+    <t>nosotros habremos infligido</t>
+  </si>
+  <si>
+    <t>vosotros habréis admitido</t>
+  </si>
+  <si>
+    <t>vosotros habréis preparado</t>
+  </si>
+  <si>
+    <t>vosotros habréis hecho</t>
+  </si>
+  <si>
+    <t>vosotros habréis llamado</t>
+  </si>
+  <si>
+    <t>vosotros habréis fallado</t>
+  </si>
+  <si>
+    <t>vosotros habréis devastado</t>
+  </si>
+  <si>
+    <t>vosotros habréis prestado</t>
+  </si>
+  <si>
+    <t>vosotros habréis templado</t>
+  </si>
+  <si>
+    <t>vosotros habréis girado</t>
+  </si>
+  <si>
+    <t>vosotros habréis parado</t>
+  </si>
+  <si>
+    <t>vosotros habréis encendido</t>
+  </si>
+  <si>
+    <t>vosotros habréis jurado</t>
+  </si>
+  <si>
+    <t>vosotros habréis infligido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán admitido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán preparado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán hecho</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán llamado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán fallado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán devastado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán prestado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán templado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán girado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán parado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán encendido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán jurado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán infligido</t>
   </si>
 </sst>
 </file>
@@ -503,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CF2"/>
+  <dimension ref="A1:CF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,253 +2280,3301 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>340</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>379</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>392</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>405</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>418</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>431</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>444</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>457</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>483</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>496</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>509</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>522</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>535</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>354</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>393</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>406</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>419</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>432</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>445</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>458</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>471</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>484</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>497</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>510</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>523</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>536</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>342</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>394</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>407</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>420</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>433</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>446</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>459</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>472</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>485</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>498</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>511</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>524</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>537</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>330</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>343</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>356</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>369</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>395</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>421</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>434</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>447</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>460</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>473</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>486</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>499</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>512</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>525</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>538</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:84">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
+        <v>136</v>
+      </c>
+      <c r="V6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" t="s">
+        <v>149</v>
+      </c>
+      <c r="X6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>344</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>357</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>383</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>396</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>409</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>422</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>435</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>448</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>461</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>474</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>487</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>500</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>513</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>539</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:84">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>111</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" t="s">
+        <v>150</v>
+      </c>
+      <c r="X7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>345</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>358</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>371</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>384</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>397</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>410</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>423</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>449</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>462</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>475</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>488</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>501</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>514</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>527</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>540</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:84">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s">
+        <v>138</v>
+      </c>
+      <c r="V8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" t="s">
+        <v>151</v>
+      </c>
+      <c r="X8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>333</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>346</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>359</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>372</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>385</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>398</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>411</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>424</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>437</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>450</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>463</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>476</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>489</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>502</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>515</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>528</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>541</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:84">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" t="s">
+        <v>139</v>
+      </c>
+      <c r="V9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>321</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>347</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>399</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>425</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>438</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>451</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>464</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>477</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>490</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>503</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>516</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>529</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>542</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:84">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" t="s">
+        <v>140</v>
+      </c>
+      <c r="V10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" t="s">
+        <v>153</v>
+      </c>
+      <c r="X10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>335</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>348</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>361</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>387</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>400</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>413</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>426</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>439</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>452</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>465</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>478</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>491</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>504</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>517</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>530</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>543</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:84">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
+        <v>128</v>
+      </c>
+      <c r="T11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" t="s">
+        <v>141</v>
+      </c>
+      <c r="V11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" t="s">
+        <v>154</v>
+      </c>
+      <c r="X11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>323</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>375</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>388</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>401</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>414</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>427</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>440</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>453</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>466</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>479</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>492</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>505</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>518</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>531</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:84">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" t="s">
+        <v>129</v>
+      </c>
+      <c r="T12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" t="s">
+        <v>142</v>
+      </c>
+      <c r="V12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" t="s">
+        <v>155</v>
+      </c>
+      <c r="X12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>337</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>350</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>363</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>376</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>389</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>402</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>415</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>428</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>441</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>467</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>480</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>493</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>506</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>532</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>545</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:84">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="V2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" t="s">
+        <v>130</v>
+      </c>
+      <c r="T13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" t="s">
+        <v>143</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" t="s">
+        <v>156</v>
+      </c>
+      <c r="X13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>325</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>338</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>351</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>364</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>377</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>390</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>403</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>416</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>442</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>455</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>468</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>481</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>494</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>507</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>520</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>533</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>546</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:84">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>42</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>43</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>2</v>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>118</v>
+      </c>
+      <c r="R14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" t="s">
+        <v>144</v>
+      </c>
+      <c r="V14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>339</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>352</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>365</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>378</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>391</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>404</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>417</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>430</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>443</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>456</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>469</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>482</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>495</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>508</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>521</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>534</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>547</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Tiempos En Español.xlsx
+++ b/Tiempos En Español.xlsx
@@ -19,133 +19,133 @@
     <t>0</t>
   </si>
   <si>
-    <t>yo esfuerzo</t>
+    <t>yo manipulo</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tú esfuerzas</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. esfuerza</t>
-  </si>
-  <si>
-    <t>nosotros esforzamos</t>
-  </si>
-  <si>
-    <t>vosotros esforzáis</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. esfuerzan</t>
-  </si>
-  <si>
-    <t>yo esforzaré</t>
-  </si>
-  <si>
-    <t>tú esforzarás</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. esforzará</t>
-  </si>
-  <si>
-    <t>nosotros esforzaremos</t>
-  </si>
-  <si>
-    <t>vosotros esforzaréis</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. esforzarán</t>
-  </si>
-  <si>
-    <t>yo esforzaba</t>
-  </si>
-  <si>
-    <t>tú esforzabas</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. esforzaba</t>
-  </si>
-  <si>
-    <t>nosotros esforzábamos</t>
-  </si>
-  <si>
-    <t>vosotros esforzabais</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. esforzaban</t>
-  </si>
-  <si>
-    <t>yo he esforzado</t>
-  </si>
-  <si>
-    <t>tú has esforzado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. ha esforzado</t>
-  </si>
-  <si>
-    <t>nosotros hemos esforzado</t>
-  </si>
-  <si>
-    <t>vosotros habéis esforzado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. han esforzado</t>
-  </si>
-  <si>
-    <t>yo había esforzado</t>
-  </si>
-  <si>
-    <t>tú habías esforzado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. había esforzado</t>
-  </si>
-  <si>
-    <t>nosotros habíamos esforzado</t>
-  </si>
-  <si>
-    <t>vosotros habíais esforzado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habían esforzado</t>
-  </si>
-  <si>
-    <t>yo hube esforzado</t>
-  </si>
-  <si>
-    <t>tú hubiste esforzado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. hubo esforzado</t>
-  </si>
-  <si>
-    <t>nosotros hubimos esforzado</t>
-  </si>
-  <si>
-    <t>vosotros hubisteis esforzado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. hubieron esforzado</t>
-  </si>
-  <si>
-    <t>yo habré esforzado</t>
-  </si>
-  <si>
-    <t>tú habrás esforzado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. habrá esforzado</t>
-  </si>
-  <si>
-    <t>nosotros habremos esforzado</t>
-  </si>
-  <si>
-    <t>vosotros habréis esforzado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habrán esforzado</t>
+    <t>tú manipulas</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. manipula</t>
+  </si>
+  <si>
+    <t>nosotros manipulamos</t>
+  </si>
+  <si>
+    <t>vosotros manipuláis</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. manipulan</t>
+  </si>
+  <si>
+    <t>yo manipularé</t>
+  </si>
+  <si>
+    <t>tú manipularás</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. manipulará</t>
+  </si>
+  <si>
+    <t>nosotros manipularemos</t>
+  </si>
+  <si>
+    <t>vosotros manipularéis</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. manipularán</t>
+  </si>
+  <si>
+    <t>yo manipulaba</t>
+  </si>
+  <si>
+    <t>tú manipulabas</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. manipulaba</t>
+  </si>
+  <si>
+    <t>nosotros manipulábamos</t>
+  </si>
+  <si>
+    <t>vosotros manipulabais</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. manipulaban</t>
+  </si>
+  <si>
+    <t>yo he manipulado</t>
+  </si>
+  <si>
+    <t>tú has manipulado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha manipulado</t>
+  </si>
+  <si>
+    <t>nosotros hemos manipulado</t>
+  </si>
+  <si>
+    <t>vosotros habéis manipulado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han manipulado</t>
+  </si>
+  <si>
+    <t>yo había manipulado</t>
+  </si>
+  <si>
+    <t>tú habías manipulado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había manipulado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos manipulado</t>
+  </si>
+  <si>
+    <t>vosotros habíais manipulado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían manipulado</t>
+  </si>
+  <si>
+    <t>yo hube manipulado</t>
+  </si>
+  <si>
+    <t>tú hubiste manipulado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo manipulado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos manipulado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis manipulado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron manipulado</t>
+  </si>
+  <si>
+    <t>yo habré manipulado</t>
+  </si>
+  <si>
+    <t>tú habrás manipulado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá manipulado</t>
+  </si>
+  <si>
+    <t>nosotros habremos manipulado</t>
+  </si>
+  <si>
+    <t>vosotros habréis manipulado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán manipulado</t>
   </si>
 </sst>
 </file>

--- a/Tiempos En Español.xlsx
+++ b/Tiempos En Español.xlsx
@@ -19,133 +19,133 @@
     <t>0</t>
   </si>
   <si>
-    <t>yo manipulo</t>
+    <t>yo secuestro</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tú manipulas</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. manipula</t>
-  </si>
-  <si>
-    <t>nosotros manipulamos</t>
-  </si>
-  <si>
-    <t>vosotros manipuláis</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. manipulan</t>
-  </si>
-  <si>
-    <t>yo manipularé</t>
-  </si>
-  <si>
-    <t>tú manipularás</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. manipulará</t>
-  </si>
-  <si>
-    <t>nosotros manipularemos</t>
-  </si>
-  <si>
-    <t>vosotros manipularéis</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. manipularán</t>
-  </si>
-  <si>
-    <t>yo manipulaba</t>
-  </si>
-  <si>
-    <t>tú manipulabas</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. manipulaba</t>
-  </si>
-  <si>
-    <t>nosotros manipulábamos</t>
-  </si>
-  <si>
-    <t>vosotros manipulabais</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. manipulaban</t>
-  </si>
-  <si>
-    <t>yo he manipulado</t>
-  </si>
-  <si>
-    <t>tú has manipulado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. ha manipulado</t>
-  </si>
-  <si>
-    <t>nosotros hemos manipulado</t>
-  </si>
-  <si>
-    <t>vosotros habéis manipulado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. han manipulado</t>
-  </si>
-  <si>
-    <t>yo había manipulado</t>
-  </si>
-  <si>
-    <t>tú habías manipulado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. había manipulado</t>
-  </si>
-  <si>
-    <t>nosotros habíamos manipulado</t>
-  </si>
-  <si>
-    <t>vosotros habíais manipulado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habían manipulado</t>
-  </si>
-  <si>
-    <t>yo hube manipulado</t>
-  </si>
-  <si>
-    <t>tú hubiste manipulado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. hubo manipulado</t>
-  </si>
-  <si>
-    <t>nosotros hubimos manipulado</t>
-  </si>
-  <si>
-    <t>vosotros hubisteis manipulado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. hubieron manipulado</t>
-  </si>
-  <si>
-    <t>yo habré manipulado</t>
-  </si>
-  <si>
-    <t>tú habrás manipulado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. habrá manipulado</t>
-  </si>
-  <si>
-    <t>nosotros habremos manipulado</t>
-  </si>
-  <si>
-    <t>vosotros habréis manipulado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habrán manipulado</t>
+    <t>tú secuestras</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. secuestra</t>
+  </si>
+  <si>
+    <t>nosotros secuestramos</t>
+  </si>
+  <si>
+    <t>vosotros secuestráis</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. secuestran</t>
+  </si>
+  <si>
+    <t>yo secuestraré</t>
+  </si>
+  <si>
+    <t>tú secuestrarás</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. secuestrará</t>
+  </si>
+  <si>
+    <t>nosotros secuestraremos</t>
+  </si>
+  <si>
+    <t>vosotros secuestraréis</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. secuestrarán</t>
+  </si>
+  <si>
+    <t>yo secuestraba</t>
+  </si>
+  <si>
+    <t>tú secuestrabas</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. secuestraba</t>
+  </si>
+  <si>
+    <t>nosotros secuestrábamos</t>
+  </si>
+  <si>
+    <t>vosotros secuestrabais</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. secuestraban</t>
+  </si>
+  <si>
+    <t>yo he secuestrado</t>
+  </si>
+  <si>
+    <t>tú has secuestrado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha secuestrado</t>
+  </si>
+  <si>
+    <t>nosotros hemos secuestrado</t>
+  </si>
+  <si>
+    <t>vosotros habéis secuestrado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han secuestrado</t>
+  </si>
+  <si>
+    <t>yo había secuestrado</t>
+  </si>
+  <si>
+    <t>tú habías secuestrado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había secuestrado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos secuestrado</t>
+  </si>
+  <si>
+    <t>vosotros habíais secuestrado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían secuestrado</t>
+  </si>
+  <si>
+    <t>yo hube secuestrado</t>
+  </si>
+  <si>
+    <t>tú hubiste secuestrado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo secuestrado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos secuestrado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis secuestrado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron secuestrado</t>
+  </si>
+  <si>
+    <t>yo habré secuestrado</t>
+  </si>
+  <si>
+    <t>tú habrás secuestrado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá secuestrado</t>
+  </si>
+  <si>
+    <t>nosotros habremos secuestrado</t>
+  </si>
+  <si>
+    <t>vosotros habréis secuestrado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán secuestrado</t>
   </si>
 </sst>
 </file>

--- a/Tiempos En Español.xlsx
+++ b/Tiempos En Español.xlsx
@@ -14,138 +14,894 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="296">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>yo secuestro</t>
+    <t>yo despejo</t>
+  </si>
+  <si>
+    <t>yo deseco</t>
+  </si>
+  <si>
+    <t>yo deshago</t>
+  </si>
+  <si>
+    <t>yo infrinjo</t>
+  </si>
+  <si>
+    <t>yo interrogo</t>
+  </si>
+  <si>
+    <t>yo restrinjo</t>
+  </si>
+  <si>
+    <t>yo arrugo</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tú secuestras</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. secuestra</t>
-  </si>
-  <si>
-    <t>nosotros secuestramos</t>
-  </si>
-  <si>
-    <t>vosotros secuestráis</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. secuestran</t>
-  </si>
-  <si>
-    <t>yo secuestraré</t>
-  </si>
-  <si>
-    <t>tú secuestrarás</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. secuestrará</t>
-  </si>
-  <si>
-    <t>nosotros secuestraremos</t>
-  </si>
-  <si>
-    <t>vosotros secuestraréis</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. secuestrarán</t>
-  </si>
-  <si>
-    <t>yo secuestraba</t>
-  </si>
-  <si>
-    <t>tú secuestrabas</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. secuestraba</t>
-  </si>
-  <si>
-    <t>nosotros secuestrábamos</t>
-  </si>
-  <si>
-    <t>vosotros secuestrabais</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. secuestraban</t>
-  </si>
-  <si>
-    <t>yo he secuestrado</t>
-  </si>
-  <si>
-    <t>tú has secuestrado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. ha secuestrado</t>
-  </si>
-  <si>
-    <t>nosotros hemos secuestrado</t>
-  </si>
-  <si>
-    <t>vosotros habéis secuestrado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. han secuestrado</t>
-  </si>
-  <si>
-    <t>yo había secuestrado</t>
-  </si>
-  <si>
-    <t>tú habías secuestrado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. había secuestrado</t>
-  </si>
-  <si>
-    <t>nosotros habíamos secuestrado</t>
-  </si>
-  <si>
-    <t>vosotros habíais secuestrado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habían secuestrado</t>
-  </si>
-  <si>
-    <t>yo hube secuestrado</t>
-  </si>
-  <si>
-    <t>tú hubiste secuestrado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. hubo secuestrado</t>
-  </si>
-  <si>
-    <t>nosotros hubimos secuestrado</t>
-  </si>
-  <si>
-    <t>vosotros hubisteis secuestrado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. hubieron secuestrado</t>
-  </si>
-  <si>
-    <t>yo habré secuestrado</t>
-  </si>
-  <si>
-    <t>tú habrás secuestrado</t>
-  </si>
-  <si>
-    <t>él/ella/Ud. habrá secuestrado</t>
-  </si>
-  <si>
-    <t>nosotros habremos secuestrado</t>
-  </si>
-  <si>
-    <t>vosotros habréis secuestrado</t>
-  </si>
-  <si>
-    <t>ellos/ellas/Uds. habrán secuestrado</t>
+    <t>tú despejas</t>
+  </si>
+  <si>
+    <t>tú desecas</t>
+  </si>
+  <si>
+    <t>tú deshaces</t>
+  </si>
+  <si>
+    <t>tú infringes</t>
+  </si>
+  <si>
+    <t>tú interrogas</t>
+  </si>
+  <si>
+    <t>tú restringes</t>
+  </si>
+  <si>
+    <t>tú arrugas</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. despeja</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. deseca</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. deshace</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. infringe</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. interroga</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. restringe</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. arruga</t>
+  </si>
+  <si>
+    <t>nosotros despejamos</t>
+  </si>
+  <si>
+    <t>nosotros desecamos</t>
+  </si>
+  <si>
+    <t>nosotros deshacemos</t>
+  </si>
+  <si>
+    <t>nosotros infringimos</t>
+  </si>
+  <si>
+    <t>nosotros interrogamos</t>
+  </si>
+  <si>
+    <t>nosotros restringimos</t>
+  </si>
+  <si>
+    <t>nosotros arrugamos</t>
+  </si>
+  <si>
+    <t>vosotros despejáis</t>
+  </si>
+  <si>
+    <t>vosotros desecáis</t>
+  </si>
+  <si>
+    <t>vosotros deshacéis</t>
+  </si>
+  <si>
+    <t>vosotros infringís</t>
+  </si>
+  <si>
+    <t>vosotros interrogáis</t>
+  </si>
+  <si>
+    <t>vosotros restringís</t>
+  </si>
+  <si>
+    <t>vosotros arrugáis</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. despejan</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. desecan</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. deshacen</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. infringen</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. interrogan</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. restringen</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. arrugan</t>
+  </si>
+  <si>
+    <t>yo despejaré</t>
+  </si>
+  <si>
+    <t>yo desecaré</t>
+  </si>
+  <si>
+    <t>yo desharé</t>
+  </si>
+  <si>
+    <t>yo infringiré</t>
+  </si>
+  <si>
+    <t>yo interrogaré</t>
+  </si>
+  <si>
+    <t>yo restringiré</t>
+  </si>
+  <si>
+    <t>yo arrugaré</t>
+  </si>
+  <si>
+    <t>tú despejarás</t>
+  </si>
+  <si>
+    <t>tú desecarás</t>
+  </si>
+  <si>
+    <t>tú desharás</t>
+  </si>
+  <si>
+    <t>tú infringirás</t>
+  </si>
+  <si>
+    <t>tú interrogarás</t>
+  </si>
+  <si>
+    <t>tú restringirás</t>
+  </si>
+  <si>
+    <t>tú arrugarás</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. despejará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. desecará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. deshará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. infringirá</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. interrogará</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. restringirá</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. arrugará</t>
+  </si>
+  <si>
+    <t>nosotros despejaremos</t>
+  </si>
+  <si>
+    <t>nosotros desecaremos</t>
+  </si>
+  <si>
+    <t>nosotros desharemos</t>
+  </si>
+  <si>
+    <t>nosotros infringiremos</t>
+  </si>
+  <si>
+    <t>nosotros interrogaremos</t>
+  </si>
+  <si>
+    <t>nosotros restringiremos</t>
+  </si>
+  <si>
+    <t>nosotros arrugaremos</t>
+  </si>
+  <si>
+    <t>vosotros despejaréis</t>
+  </si>
+  <si>
+    <t>vosotros desecaréis</t>
+  </si>
+  <si>
+    <t>vosotros desharéis</t>
+  </si>
+  <si>
+    <t>vosotros infringiréis</t>
+  </si>
+  <si>
+    <t>vosotros interrogaréis</t>
+  </si>
+  <si>
+    <t>vosotros restringiréis</t>
+  </si>
+  <si>
+    <t>vosotros arrugaréis</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. despejarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. desecarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. desharán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. infringirán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. interrogarán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. restringirán</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. arrugarán</t>
+  </si>
+  <si>
+    <t>yo despejaba</t>
+  </si>
+  <si>
+    <t>yo desecaba</t>
+  </si>
+  <si>
+    <t>yo deshacía</t>
+  </si>
+  <si>
+    <t>yo infringía</t>
+  </si>
+  <si>
+    <t>yo interrogaba</t>
+  </si>
+  <si>
+    <t>yo restringía</t>
+  </si>
+  <si>
+    <t>yo arrugaba</t>
+  </si>
+  <si>
+    <t>tú despejabas</t>
+  </si>
+  <si>
+    <t>tú desecabas</t>
+  </si>
+  <si>
+    <t>tú deshacías</t>
+  </si>
+  <si>
+    <t>tú infringías</t>
+  </si>
+  <si>
+    <t>tú interrogabas</t>
+  </si>
+  <si>
+    <t>tú restringías</t>
+  </si>
+  <si>
+    <t>tú arrugabas</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. despejaba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. desecaba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. deshacía</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. infringía</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. interrogaba</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. restringía</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. arrugaba</t>
+  </si>
+  <si>
+    <t>nosotros despejábamos</t>
+  </si>
+  <si>
+    <t>nosotros desecábamos</t>
+  </si>
+  <si>
+    <t>nosotros deshacíamos</t>
+  </si>
+  <si>
+    <t>nosotros infringíamos</t>
+  </si>
+  <si>
+    <t>nosotros interrogábamos</t>
+  </si>
+  <si>
+    <t>nosotros restringíamos</t>
+  </si>
+  <si>
+    <t>nosotros arrugábamos</t>
+  </si>
+  <si>
+    <t>vosotros despejabais</t>
+  </si>
+  <si>
+    <t>vosotros desecabais</t>
+  </si>
+  <si>
+    <t>vosotros deshacíais</t>
+  </si>
+  <si>
+    <t>vosotros infringíais</t>
+  </si>
+  <si>
+    <t>vosotros interrogabais</t>
+  </si>
+  <si>
+    <t>vosotros restringíais</t>
+  </si>
+  <si>
+    <t>vosotros arrugabais</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. despejaban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. desecaban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. deshacían</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. infringían</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. interrogaban</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. restringían</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. arrugaban</t>
+  </si>
+  <si>
+    <t>yo he despejado</t>
+  </si>
+  <si>
+    <t>yo he desecado</t>
+  </si>
+  <si>
+    <t>yo he deshecho</t>
+  </si>
+  <si>
+    <t>yo he infringido</t>
+  </si>
+  <si>
+    <t>yo he interrogado</t>
+  </si>
+  <si>
+    <t>yo he restringido</t>
+  </si>
+  <si>
+    <t>yo he arrugado</t>
+  </si>
+  <si>
+    <t>tú has despejado</t>
+  </si>
+  <si>
+    <t>tú has desecado</t>
+  </si>
+  <si>
+    <t>tú has deshecho</t>
+  </si>
+  <si>
+    <t>tú has infringido</t>
+  </si>
+  <si>
+    <t>tú has interrogado</t>
+  </si>
+  <si>
+    <t>tú has restringido</t>
+  </si>
+  <si>
+    <t>tú has arrugado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha despejado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha desecado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha deshecho</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha infringido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha interrogado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha restringido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. ha arrugado</t>
+  </si>
+  <si>
+    <t>nosotros hemos despejado</t>
+  </si>
+  <si>
+    <t>nosotros hemos desecado</t>
+  </si>
+  <si>
+    <t>nosotros hemos deshecho</t>
+  </si>
+  <si>
+    <t>nosotros hemos infringido</t>
+  </si>
+  <si>
+    <t>nosotros hemos interrogado</t>
+  </si>
+  <si>
+    <t>nosotros hemos restringido</t>
+  </si>
+  <si>
+    <t>nosotros hemos arrugado</t>
+  </si>
+  <si>
+    <t>vosotros habéis despejado</t>
+  </si>
+  <si>
+    <t>vosotros habéis desecado</t>
+  </si>
+  <si>
+    <t>vosotros habéis deshecho</t>
+  </si>
+  <si>
+    <t>vosotros habéis infringido</t>
+  </si>
+  <si>
+    <t>vosotros habéis interrogado</t>
+  </si>
+  <si>
+    <t>vosotros habéis restringido</t>
+  </si>
+  <si>
+    <t>vosotros habéis arrugado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han despejado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han desecado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han deshecho</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han infringido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han interrogado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han restringido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. han arrugado</t>
+  </si>
+  <si>
+    <t>yo había despejado</t>
+  </si>
+  <si>
+    <t>yo había desecado</t>
+  </si>
+  <si>
+    <t>yo había deshecho</t>
+  </si>
+  <si>
+    <t>yo había infringido</t>
+  </si>
+  <si>
+    <t>yo había interrogado</t>
+  </si>
+  <si>
+    <t>yo había restringido</t>
+  </si>
+  <si>
+    <t>yo había arrugado</t>
+  </si>
+  <si>
+    <t>tú habías despejado</t>
+  </si>
+  <si>
+    <t>tú habías desecado</t>
+  </si>
+  <si>
+    <t>tú habías deshecho</t>
+  </si>
+  <si>
+    <t>tú habías infringido</t>
+  </si>
+  <si>
+    <t>tú habías interrogado</t>
+  </si>
+  <si>
+    <t>tú habías restringido</t>
+  </si>
+  <si>
+    <t>tú habías arrugado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había despejado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había desecado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había deshecho</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había infringido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había interrogado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había restringido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. había arrugado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos despejado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos desecado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos deshecho</t>
+  </si>
+  <si>
+    <t>nosotros habíamos infringido</t>
+  </si>
+  <si>
+    <t>nosotros habíamos interrogado</t>
+  </si>
+  <si>
+    <t>nosotros habíamos restringido</t>
+  </si>
+  <si>
+    <t>nosotros habíamos arrugado</t>
+  </si>
+  <si>
+    <t>vosotros habíais despejado</t>
+  </si>
+  <si>
+    <t>vosotros habíais desecado</t>
+  </si>
+  <si>
+    <t>vosotros habíais deshecho</t>
+  </si>
+  <si>
+    <t>vosotros habíais infringido</t>
+  </si>
+  <si>
+    <t>vosotros habíais interrogado</t>
+  </si>
+  <si>
+    <t>vosotros habíais restringido</t>
+  </si>
+  <si>
+    <t>vosotros habíais arrugado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían despejado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían desecado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían deshecho</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían infringido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían interrogado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían restringido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habían arrugado</t>
+  </si>
+  <si>
+    <t>yo hube despejado</t>
+  </si>
+  <si>
+    <t>yo hube desecado</t>
+  </si>
+  <si>
+    <t>yo hube deshecho</t>
+  </si>
+  <si>
+    <t>yo hube infringido</t>
+  </si>
+  <si>
+    <t>yo hube interrogado</t>
+  </si>
+  <si>
+    <t>yo hube restringido</t>
+  </si>
+  <si>
+    <t>yo hube arrugado</t>
+  </si>
+  <si>
+    <t>tú hubiste despejado</t>
+  </si>
+  <si>
+    <t>tú hubiste desecado</t>
+  </si>
+  <si>
+    <t>tú hubiste deshecho</t>
+  </si>
+  <si>
+    <t>tú hubiste infringido</t>
+  </si>
+  <si>
+    <t>tú hubiste interrogado</t>
+  </si>
+  <si>
+    <t>tú hubiste restringido</t>
+  </si>
+  <si>
+    <t>tú hubiste arrugado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo despejado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo desecado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo deshecho</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo infringido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo interrogado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo restringido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. hubo arrugado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos despejado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos desecado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos deshecho</t>
+  </si>
+  <si>
+    <t>nosotros hubimos infringido</t>
+  </si>
+  <si>
+    <t>nosotros hubimos interrogado</t>
+  </si>
+  <si>
+    <t>nosotros hubimos restringido</t>
+  </si>
+  <si>
+    <t>nosotros hubimos arrugado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis despejado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis desecado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis deshecho</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis infringido</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis interrogado</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis restringido</t>
+  </si>
+  <si>
+    <t>vosotros hubisteis arrugado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron despejado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron desecado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron deshecho</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron infringido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron interrogado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron restringido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. hubieron arrugado</t>
+  </si>
+  <si>
+    <t>yo habré despejado</t>
+  </si>
+  <si>
+    <t>yo habré desecado</t>
+  </si>
+  <si>
+    <t>yo habré deshecho</t>
+  </si>
+  <si>
+    <t>yo habré infringido</t>
+  </si>
+  <si>
+    <t>yo habré interrogado</t>
+  </si>
+  <si>
+    <t>yo habré restringido</t>
+  </si>
+  <si>
+    <t>yo habré arrugado</t>
+  </si>
+  <si>
+    <t>tú habrás despejado</t>
+  </si>
+  <si>
+    <t>tú habrás desecado</t>
+  </si>
+  <si>
+    <t>tú habrás deshecho</t>
+  </si>
+  <si>
+    <t>tú habrás infringido</t>
+  </si>
+  <si>
+    <t>tú habrás interrogado</t>
+  </si>
+  <si>
+    <t>tú habrás restringido</t>
+  </si>
+  <si>
+    <t>tú habrás arrugado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá despejado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá desecado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá deshecho</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá infringido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá interrogado</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá restringido</t>
+  </si>
+  <si>
+    <t>él/ella/Ud. habrá arrugado</t>
+  </si>
+  <si>
+    <t>nosotros habremos despejado</t>
+  </si>
+  <si>
+    <t>nosotros habremos desecado</t>
+  </si>
+  <si>
+    <t>nosotros habremos deshecho</t>
+  </si>
+  <si>
+    <t>nosotros habremos infringido</t>
+  </si>
+  <si>
+    <t>nosotros habremos interrogado</t>
+  </si>
+  <si>
+    <t>nosotros habremos restringido</t>
+  </si>
+  <si>
+    <t>nosotros habremos arrugado</t>
+  </si>
+  <si>
+    <t>vosotros habréis despejado</t>
+  </si>
+  <si>
+    <t>vosotros habréis desecado</t>
+  </si>
+  <si>
+    <t>vosotros habréis deshecho</t>
+  </si>
+  <si>
+    <t>vosotros habréis infringido</t>
+  </si>
+  <si>
+    <t>vosotros habréis interrogado</t>
+  </si>
+  <si>
+    <t>vosotros habréis restringido</t>
+  </si>
+  <si>
+    <t>vosotros habréis arrugado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán despejado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán desecado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán deshecho</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán infringido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán interrogado</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán restringido</t>
+  </si>
+  <si>
+    <t>ellos/ellas/Uds. habrán arrugado</t>
   </si>
 </sst>
 </file>
@@ -503,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CF2"/>
+  <dimension ref="A1:CF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,253 +1524,1777 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>268</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>282</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>289</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>269</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>290</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>284</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>291</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>264</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>278</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>285</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>292</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:84">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>237</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>244</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>265</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>272</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>279</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>293</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:84">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>238</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>245</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>252</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>259</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>266</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>280</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>287</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>294</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:84">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="BD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="BR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>42</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE2" t="s">
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="CF2" t="s">
-        <v>2</v>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" t="s">
+        <v>85</v>
+      </c>
+      <c r="X9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>239</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>246</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>253</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>267</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>274</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>281</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>288</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>295</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
